--- a/2021-11 Noviembre/02 - lineas/fechas_lineas_metro.xlsx
+++ b/2021-11 Noviembre/02 - lineas/fechas_lineas_metro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juvenalcampos/Documents/Documentos - MacBook Pro de Juvenal/GitHub/ig_juvenalcampos.dataviz/2021-11 Noviembre/02 - lineas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51078D8-A4D4-564A-8C59-A3A9511C3B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58095CE3-1172-2D40-9390-CDD5FDCD9096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{4C0046D7-5A43-3144-9E97-343B4F390F13}"/>
   </bookViews>
@@ -237,13 +237,13 @@
     <t>año</t>
   </si>
   <si>
-    <t>Pino Suárez - Tasqueña</t>
-  </si>
-  <si>
     <t>Inst. del Petróleo - Martín Carrera</t>
   </si>
   <si>
     <t>El Rosario - Inst. del Petróleo</t>
+  </si>
+  <si>
+    <t>Pino Suárez - Tasquena</t>
   </si>
 </sst>
 </file>
@@ -617,7 +617,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -718,7 +718,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
@@ -1016,7 +1016,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>36</v>
@@ -1144,7 +1144,7 @@
         <v>6</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>37</v>
